--- a/biology/Médecine/Écaille_de_l'os_occipital/Écaille_de_l'os_occipital.xlsx
+++ b/biology/Médecine/Écaille_de_l'os_occipital/Écaille_de_l'os_occipital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_occipital</t>
+          <t>Écaille_de_l'os_occipital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écaille de l'os occipital (ou partie squameuse de l'os occipital) est la partie de l'os qui contribue à la constitution de la cavité cérébrale. Elle est située au-dessus et en arrière du foramen magnum. Elle est plate et concave vers le haut.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_occipital</t>
+          <t>Écaille_de_l'os_occipital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Surface externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La surface externe de l'écaille de l'os occipital est convexe.
 Elle présente à mi-chemin entre le sommet de l'os et le foramen magnum une proéminence, la protubérance occipitale externe. A sa base et à l'union des lignes nuchales supérieure droite et gauche, on trouve le point anthropométrique appelé l'inion.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_occipital</t>
+          <t>Écaille_de_l'os_occipital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Surface interne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La face interne de l'écaille de l'os occipital est profondément concave et divisée en quatre fosses par l'éminence cruciforme.
 Les deux fosses supérieures sont triangulaires et logent les lobes occipitaux du cerveau.
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89caille_de_l%27os_occipital</t>
+          <t>Écaille_de_l'os_occipital</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Bord</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bord de l'écaille s'articule avec l'os temporal par deux parties inférieures : les bords mastoïdiens de l’écaille de l'occipital en formant les sutures occipito-mastoïdiennes. Sa partie supérieure s'articule avec les os pariétaux par le bord lambdoïde de l'écaille occipitale en formant la suture lambdoïde.
 </t>
